--- a/Text/useCaseProject2.xlsx
+++ b/Text/useCaseProject2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Q$57</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,10 +24,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Guest</t>
+    <t>Administrator</t>
   </si>
   <si>
-    <t>Administrator</t>
+    <t>Guest/Existing User</t>
   </si>
 </sst>
 </file>
@@ -68,13 +63,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -524,8 +522,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3733799" y="419100"/>
-          <a:ext cx="2008908" cy="600075"/>
+          <a:off x="3770910" y="419100"/>
+          <a:ext cx="2027463" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2506,7 +2504,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2520,10 +2518,13 @@
   <dimension ref="A29:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="29" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E29" s="1"/>
@@ -2531,15 +2532,19 @@
     <row r="32" spans="5:16" x14ac:dyDescent="0.25">
       <c r="O32" s="3"/>
       <c r="P32" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A33:B33"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="58" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
